--- a/dev/styles.xlsx
+++ b/dev/styles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29307"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2ee9bsf\Documents\00 Workspace\DXR\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benst\Documents\Workspace\DXR\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFFA098-DAF5-4F6C-9124-17431DA2DEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F9D338-C589-4A30-A7F0-1AE6202E967A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-90" windowWidth="29040" windowHeight="15690" activeTab="1" xr2:uid="{A363FA89-A86C-4717-A97F-31F00845C462}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{A363FA89-A86C-4717-A97F-31F00845C462}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -636,19 +636,19 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="20" width="16.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="20" width="16.73046875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.3984375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -668,7 +668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,13 +718,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>42</v>
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -850,7 +850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -903,7 +903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -1056,7 +1056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -1213,7 +1213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1467,20 +1467,20 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="18.7109375" style="1" customWidth="1"/>
-    <col min="16" max="22" width="16.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="15" width="18.73046875" style="1" customWidth="1"/>
+    <col min="16" max="22" width="16.73046875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.3984375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1533,13 +1533,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>42</v>
@@ -1575,7 +1575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -1685,7 +1685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1721,13 +1721,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -1809,7 +1809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1883,17 +1883,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1928,42 +1928,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
